--- a/OceanSubsidy/Template/SCI/OTech/附件-02海洋科技科專案計畫書/附件-02-4-0經費概算彙總表.xlsx
+++ b/OceanSubsidy/Template/SCI/OTech/附件-02海洋科技科專案計畫書/附件-02-4-0經費概算彙總表.xlsx
@@ -1,35 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專案\海委會補助\114海委會補助\系統分析\範本\科專\業者\附件-02海洋科技科專案計畫書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\外包資料夾\OceanSubsidy\OceanSubsidy\Template\SCI\OTech\附件-02海洋科技科專案計畫書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D36E316-970B-4970-BBE9-B2B6FBF0D710}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A4B717-9DEF-4639-B772-19F4D5359139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="經費概算彙總表" sheetId="1" r:id="rId1"/>
+    <sheet name="人事費明細表" sheetId="2" r:id="rId2"/>
+    <sheet name="消耗性器材及原材料費" sheetId="3" r:id="rId3"/>
+    <sheet name="技術移轉及委託研究費用" sheetId="4" r:id="rId4"/>
+    <sheet name="國內差旅費" sheetId="5" r:id="rId5"/>
+    <sheet name="其他業務費" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk177767692" localSheetId="0">工作表1!$A$3</definedName>
-    <definedName name="_Toc241921334" localSheetId="0">工作表1!$A$1</definedName>
+    <definedName name="_Hlk177767692" localSheetId="0">經費概算彙總表!$A$3</definedName>
+    <definedName name="_Toc241921334" localSheetId="0">經費概算彙總表!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>金額單位：新臺幣千元</t>
   </si>
@@ -159,9 +176,6 @@
       </rPr>
       <t>其他業務費</t>
     </r>
-  </si>
-  <si>
-    <t>經費總計</t>
   </si>
   <si>
     <t>(I)</t>
@@ -375,13 +389,1158 @@
   </si>
   <si>
     <t>肆、計畫經費需求表</t>
+  </si>
+  <si>
+    <t>經費總計</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、各項經費明細表－補助項目</t>
+  </si>
+  <si>
+    <t>（一）人事費明細表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位：新臺幣千元</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>職稱</t>
+  </si>
+  <si>
+    <t>平均月薪</t>
+  </si>
+  <si>
+    <t>參與人月</t>
+  </si>
+  <si>
+    <t>人事費小計</t>
+  </si>
+  <si>
+    <t>（二）消耗性器材及原材料費</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+  </si>
+  <si>
+    <t>單位</t>
+  </si>
+  <si>
+    <t>預估需求數量</t>
+  </si>
+  <si>
+    <t>單價</t>
+  </si>
+  <si>
+    <t>總價</t>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>材料費之編列範圍包括研發用途之消耗性器材及原材料費，但不含辦公所需事務性耗材。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>專為執行開發計畫所發生之消耗性器材及原材料費，但不含模具、冶具、夾具等屬固定資產之設備。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本項經費支出之憑證、發票等，其品名之填寫應完整，並與計畫書上所列一致，勿填列代號或簡稱。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>消耗性器材及原材料費不得超過計畫總經費之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本會計科目之編列不含營業稅</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可認列之消耗性器材及原材料費其單據日期應在計畫執行期間內。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>所有購買物品應列明品名、數量及單價。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應依附件十海洋科技專案計畫會計科目編列與執行原則之規定辦理</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（三）技術移轉及委託研究費用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">技術移轉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請自行加行列出所有案件資料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>期間</t>
+  </si>
+  <si>
+    <t>委託項目名稱</t>
+  </si>
+  <si>
+    <t>委託對象</t>
+  </si>
+  <si>
+    <t>金額</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>所稱技術移轉為經由技術合作、技術授權</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商標、執照、權利金、軟體及資料庫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、技術指導</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設計、相關技術援助、技術訓練、技術諮詢、技術研究</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、智財授權等方式，以取得並移轉技術</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>智財</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>者。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>委託研究</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>委託研究費﹕委託外界機構、單位專案研究或研發所需之費用。與技術研發或研發服務直接相關零組件、次系統理論分析模擬設計研發、製造、測試</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>含認證</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>；專利檢索；軟體電腦程式原始碼授權等；藥理、毒性、動物及臨床試驗等。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>驗證費﹕檢測分析及認證費用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本會計科目之編列包含技術或關鍵智財之移轉及委託研究費，若契約約定執行期間超出計畫核准執行期間，應核減非計畫期間所應分攤之費用；由技術提供者採授權方式移轉者，其授權期間超出計畫核准執行期間，應核算計畫執行期間所平均攤提之授權費用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>須附上技術移轉及委託研究契約或報價單，並以委任之政府所屬機關（構）首長或學校、法人及民間單位之該項委託工作項目負責人簽署用印為佐證。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>為確保計畫研發自主性，技術移轉及委託研究兩項經費合計不得超過計畫總經費</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，超過該比率者，不予受理。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>委託者須為單位不得為個人，若技術移轉提供者為個人除外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>需提供佐證資料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應依附件十海洋科技專案計畫會計科目編列與執行原則之規定辦理。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本會計科目之編列</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不含營業稅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>（四）國內差旅費</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差事由</t>
+  </si>
+  <si>
+    <t>地區</t>
+  </si>
+  <si>
+    <t>天數</t>
+  </si>
+  <si>
+    <t>人次</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>限為海洋科技執行計畫需要，於計畫執行期間內，派遣本計畫研發人員之出差地點應為國內技術轉移對象、委外測試或驗證機構、委託研究對象之所在地。出差事由應與國內技術移轉、委外測試或驗證、委託研究及參與計畫補助單位認可之特定公務相關。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應依附件十海洋科技專案計畫會計科目編列與執行原則之規定辦理。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>差旅費不得超過計畫總經費之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本會計科目之編列</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不含營業稅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>（五）其他業務費</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單位：新臺幣千元</t>
+    </r>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>計算方式及說明</t>
+  </si>
+  <si>
+    <t>租金</t>
+  </si>
+  <si>
+    <t>勞務委託費</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>租金：限為海洋科技執行計畫需要，於計畫執行期間內，向外界機構、單位以「營業租賃」方式租用各項機械、儀器設備、場地、載運機械設備車輛、船舶等之租金。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>勞務委託費：限為海洋科技執行計畫需要，於計畫執行期間內，聘僱臨時人員工資、派遣人力等費用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應依附件十海洋科技專案計畫會計科目編列與執行原則之規定辦理。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本會計科目之編列不含營業稅。</t>
+    </r>
+  </si>
+  <si>
+    <t>合   計</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>計畫所列海洋科技研發人員應具執行計畫所需能力、研究發展之能力與專案執行及研發成果管理能力。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>所列人員須為申請人正式員工（具其勞保身份者），員工數不足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以下，請檢附就業保險資料。未具參加勞工保險投保資格者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已符合年資或退休</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，須檢附證明文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如職業災害保險</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人事費不得超過計畫總經費</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，超過則須於經費概算彙總表加註說明理由。行政、會計、出納、美編及非實際參與研發工作人員等，均不得列為本計畫研發人員項目。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應規劃提升海洋科技研發人員薪資機制或建置友善職場環境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如加薪規則、升遷管道、激勵措施及工作環境硬體設施等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>計畫所列海洋科技研發人員之實領薪資應高於或等於平均月薪，相關規定請參閱附件十海洋科技專案計畫會計科目編列與執行原則編列。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>轉委託研究</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請自行加行列出所有案件資料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合　　　　計</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +1575,32 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -425,7 +1610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -468,11 +1653,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -495,9 +1693,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -507,11 +1702,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -810,16 +2058,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>24</v>
+      <c r="A1" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -833,16 +2081,16 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -861,7 +2109,7 @@
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -911,78 +2159,78 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -996,4 +2244,716 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF5D627-6FBA-498E-B4C7-E1DBECCB3396}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="E3" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25">
+        <f ca="1">IF(ROW()&lt;=5, 0, SUM(E5:OFFSET(E5, ROW()-6, 0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B776AA-F2C7-4E71-95C6-6C0FDA10E637}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F2" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="6">
+        <f ca="1">IF(ROW()&lt;=4, 0, SUM(F4:OFFSET(F4, ROW()-5, 0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9D2968-0BEE-439D-9365-86D7E0A3DBA0}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E2" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3F0803-A65A-413A-9AC7-227A09199E1D}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E2" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="6">
+        <f ca="1">IF(ROW()&lt;=4, 0, SUM(E4:OFFSET(E4, ROW()-5, 0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AAE8B6-FC37-40DC-9598-C32007E594F6}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="67" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C2" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+    </row>
+    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/OceanSubsidy/Template/SCI/OTech/附件-02海洋科技科專案計畫書/附件-02-4-0經費概算彙總表.xlsx
+++ b/OceanSubsidy/Template/SCI/OTech/附件-02海洋科技科專案計畫書/附件-02-4-0經費概算彙總表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\外包資料夾\OceanSubsidy\OceanSubsidy\Template\SCI\OTech\附件-02海洋科技科專案計畫書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專案\海委會補助\114海委會補助\系統分析\範本\NEW_格式新整理\SCI_115調整\OTech\附件-02海洋科技科專案計畫書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A4B717-9DEF-4639-B772-19F4D5359139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFAE682-FD44-46EC-AE0E-C6AB021284A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="經費概算彙總表" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -46,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>金額單位：新臺幣千元</t>
   </si>
@@ -492,101 +483,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>消耗性器材及原材料費不得超過計畫總經費之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>25%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>本會計科目之編列不含營業稅</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>可認列之消耗性器材及原材料費其單據日期應在計畫執行期間內。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>所有購買物品應列明品名、數量及單價。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>應依附件十海洋科技專案計畫會計科目編列與執行原則之規定辦理</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>（三）技術移轉及委託研究費用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -880,6 +776,469 @@
     </r>
   </si>
   <si>
+    <t>（四）國內差旅費</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差事由</t>
+  </si>
+  <si>
+    <t>地區</t>
+  </si>
+  <si>
+    <t>天數</t>
+  </si>
+  <si>
+    <t>人次</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>限為海洋科技執行計畫需要，於計畫執行期間內，派遣本計畫研發人員之出差地點應為國內技術轉移對象、委外測試或驗證機構、委託研究對象之所在地。出差事由應與國內技術移轉、委外測試或驗證、委託研究及參與計畫補助單位認可之特定公務相關。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應依附件十海洋科技專案計畫會計科目編列與執行原則之規定辦理。</t>
+    </r>
+  </si>
+  <si>
+    <t>（五）其他業務費</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單位：新臺幣千元</t>
+    </r>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>計算方式及說明</t>
+  </si>
+  <si>
+    <t>租金</t>
+  </si>
+  <si>
+    <t>勞務委託費</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>租金：限為海洋科技執行計畫需要，於計畫執行期間內，向外界機構、單位以「營業租賃」方式租用各項機械、儀器設備、場地、載運機械設備車輛、船舶等之租金。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應依附件十海洋科技專案計畫會計科目編列與執行原則之規定辦理。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本會計科目之編列不含營業稅。</t>
+    </r>
+  </si>
+  <si>
+    <t>合   計</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>計畫所列海洋科技研發人員應具執行計畫所需能力、研究發展之能力與專案執行及研發成果管理能力。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>所列人員須為申請人正式員工（具其勞保身份者），員工數不足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以下，請檢附就業保險資料。未具參加勞工保險投保資格者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已符合年資或退休</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，須檢附證明文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如職業災害保險</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>轉委託研究</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請自行加行列出所有案件資料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合　　　　計</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應規劃提升海洋科技研發人員薪資機制或建置友善職場環境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如加薪規則、升遷管道、激勵措施及工作環境硬體設施等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>計畫所列海洋科技研發人員之實領薪資應高於或等於平均月薪，相關規定請參閱附件十海洋科技專案計畫會計科目編列與執行原則編列。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本會計科目之編列不含營業稅</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可認列之消耗性器材及原材料費其單據日期應在計畫執行期間內。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>所有購買物品應列明品名、數量及單價。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應依附件十海洋科技專案計畫會計科目編列與執行原則之規定辦理</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>5.</t>
     </r>
@@ -891,27 +1250,47 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>為確保計畫研發自主性，技術移轉及委託研究兩項經費合計不得超過計畫總經費</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>40%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，超過該比率者，不予受理。</t>
-    </r>
+      <t>委託者須為單位不得為個人，若技術移轉提供者為個人除外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>需提供佐證資料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -925,65 +1304,13 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>委託者須為單位不得為個人，若技術移轉提供者為個人除外</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>需提供佐證資料</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
+      <t>應依附件十海洋科技專案計畫會計科目編列與執行原則之規定辦理。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>應依附件十海洋科技專案計畫會計科目編列與執行原則之規定辦理。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8.</t>
     </r>
     <r>
       <rPr>
@@ -1017,90 +1344,11 @@
       </rPr>
       <t>。</t>
     </r>
-  </si>
-  <si>
-    <t>（四）國內差旅費</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>出差事由</t>
-  </si>
-  <si>
-    <t>地區</t>
-  </si>
-  <si>
-    <t>天數</t>
-  </si>
-  <si>
-    <t>人次</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>限為海洋科技執行計畫需要，於計畫執行期間內，派遣本計畫研發人員之出差地點應為國內技術轉移對象、委外測試或驗證機構、委託研究對象之所在地。出差事由應與國內技術移轉、委外測試或驗證、委託研究及參與計畫補助單位認可之特定公務相關。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>應依附件十海洋科技專案計畫會計科目編列與執行原則之規定辦理。</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>差旅費不得超過計畫總經費之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.5%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
     </r>
     <r>
       <rPr>
@@ -1134,58 +1382,10 @@
       </rPr>
       <t>。</t>
     </r>
-  </si>
-  <si>
-    <t>（五）其他業務費</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>單位：新臺幣千元</t>
-    </r>
-  </si>
-  <si>
-    <t>項目</t>
-  </si>
-  <si>
-    <t>計算方式及說明</t>
-  </si>
-  <si>
-    <t>租金</t>
-  </si>
-  <si>
-    <t>勞務委託費</t>
-  </si>
-  <si>
-    <t>合計</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>租金：限為海洋科技執行計畫需要，於計畫執行期間內，向外界機構、單位以「營業租賃」方式租用各項機械、儀器設備、場地、載運機械設備車輛、船舶等之租金。</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>2.</t>
     </r>
     <r>
@@ -1196,343 +1396,8 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>勞務委託費：限為海洋科技執行計畫需要，於計畫執行期間內，聘僱臨時人員工資、派遣人力等費用。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>應依附件十海洋科技專案計畫會計科目編列與執行原則之規定辦理。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>本會計科目之編列不含營業稅。</t>
-    </r>
-  </si>
-  <si>
-    <t>合   計</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>計畫所列海洋科技研發人員應具執行計畫所需能力、研究發展之能力與專案執行及研發成果管理能力。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>所列人員須為申請人正式員工（具其勞保身份者），員工數不足</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不含</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以下，請檢附就業保險資料。未具參加勞工保險投保資格者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>已符合年資或退休</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，須檢附證明文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>如職業災害保險</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>人事費不得超過計畫總經費</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，超過則須於經費概算彙總表加註說明理由。行政、會計、出納、美編及非實際參與研發工作人員等，均不得列為本計畫研發人員項目。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>應規劃提升海洋科技研發人員薪資機制或建置友善職場環境</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>如加薪規則、升遷管道、激勵措施及工作環境硬體設施等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>計畫所列海洋科技研發人員之實領薪資應高於或等於平均月薪，相關規定請參閱附件十海洋科技專案計畫會計科目編列與執行原則編列。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>轉委託研究</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>請自行加行列出所有案件資料</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合　　　　計</t>
+      <t>勞務委託費：限為海洋科技執行計畫需要，於計畫執行期間內，聘僱約用人員工資、派遣人力等費用。</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2043,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -2248,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF5D627-6FBA-498E-B4C7-E1DBECCB3396}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2298,7 +2163,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -2315,7 +2180,7 @@
     </row>
     <row r="7" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -2324,47 +2189,37 @@
     </row>
     <row r="8" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
     </row>
-    <row r="9" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
     </row>
-    <row r="10" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
     </row>
-    <row r="11" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2374,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B776AA-F2C7-4E71-95C6-6C0FDA10E637}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2470,7 +2325,7 @@
     </row>
     <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -2478,56 +2333,45 @@
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-    </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+    <row r="10" spans="1:6" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2537,10 +2381,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9D2968-0BEE-439D-9365-86D7E0A3DBA0}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2553,7 +2397,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -2563,19 +2407,19 @@
     </row>
     <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -2594,19 +2438,19 @@
     </row>
     <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -2625,7 +2469,7 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2639,7 +2483,7 @@
     </row>
     <row r="11" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -2648,7 +2492,7 @@
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -2657,7 +2501,7 @@
     </row>
     <row r="13" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -2666,7 +2510,7 @@
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2675,7 +2519,7 @@
     </row>
     <row r="15" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -2684,55 +2528,45 @@
     </row>
     <row r="16" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
     </row>
-    <row r="17" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
     </row>
-    <row r="18" spans="1:5" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
@@ -2748,10 +2582,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3F0803-A65A-413A-9AC7-227A09199E1D}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2763,7 +2597,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -2773,19 +2607,19 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -2807,7 +2641,7 @@
     </row>
     <row r="6" spans="1:5" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -2816,37 +2650,29 @@
     </row>
     <row r="7" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-    </row>
+    <row r="9" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2859,7 +2685,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2872,42 +2698,42 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="21"/>
@@ -2919,28 +2745,28 @@
     </row>
     <row r="8" spans="1:3" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
     </row>
-    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
     </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
